--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$187</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7543" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7123" uniqueCount="931">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -479,7 +479,7 @@
 </t>
   </si>
   <si>
-    <t>eCH-0011: 3.3.3.2 placeOfBirth BFS-322, BFS-323, BFS 324</t>
+    <t>eCH-0011: placeOfBirth BFS-322, BFS-323, BFS 324</t>
   </si>
   <si>
     <t>Patient.extension:placeOfOrigin</t>
@@ -498,7 +498,7 @@
     <t>The registered place of origin of the patient.</t>
   </si>
   <si>
-    <t>eCH-0011: 3.3.10 placeOfOrigin, BFS-42</t>
+    <t>eCH-0011: placeOfOrigin, BFS-42</t>
   </si>
   <si>
     <t>Patient.extension:citizenship</t>
@@ -521,7 +521,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ch-pat-3:ISO Country Alpha-2 or ISO Country Alpha-3 code {((extension.where(url='code').value.coding.code.length()=2) and extension.where(url='code').value.coding.code.memberOf('http://hl7.org/fhir/ValueSet/iso3166-1-2')) or ((extension.where(url='code').value.coding.code.length() = 3) and extension.where(url='code').value.coding.code.memberOf('http://hl7.org/fhir/ValueSet/iso3166-1-3'))}</t>
   </si>
   <si>
-    <t>eCH-0011: 3.3.6 nationalityData</t>
+    <t>eCH-0011: nationalityData</t>
   </si>
   <si>
     <t>Patient.extension:religion</t>
@@ -540,7 +540,7 @@
     <t>The patient's professed religious affiliations.</t>
   </si>
   <si>
-    <t>eCH-0011: 3.3.4.1 religion, BFS-711</t>
+    <t>eCH-0011: religion, BFS-711</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -761,7 +761,7 @@
     <t>XPN</t>
   </si>
   <si>
-    <t>eCH-0011: 3.3.2 nameData</t>
+    <t>eCH-0011: nameData</t>
   </si>
   <si>
     <t>Patient.name.id</t>
@@ -970,7 +970,7 @@
     <t>eCH-0011: Extension to define first name type</t>
   </si>
   <si>
-    <t>eCH-0011: officialFirstName, callName, allianceName, firstNameOnForeignPassport, declaredForeignFirstName1</t>
+    <t>eCH-0011: officialFirstName, callName, allianceName, firstNameOnForeignPassport, declaredForeignFirstName</t>
   </si>
   <si>
     <t>Patient.name.given.value</t>
@@ -1132,7 +1132,7 @@
     <t>XTN</t>
   </si>
   <si>
-    <t>eCH-0046: 4.3 email</t>
+    <t>eCH-0046: email</t>
   </si>
   <si>
     <t>Patient.telecom:phone</t>
@@ -1148,7 +1148,7 @@
     <t>CH Core ContactPoint eCH-0046 Phone</t>
   </si>
   <si>
-    <t>eCH-0046: 4.4 phone</t>
+    <t>eCH-0046: phone</t>
   </si>
   <si>
     <t>Patient.telecom:phone.id</t>
@@ -1194,7 +1194,7 @@
     <t>XTN.3</t>
   </si>
   <si>
-    <t>eCH-0046: 4.4 phoneType</t>
+    <t>eCH-0046: phoneType</t>
   </si>
   <si>
     <t>Patient.telecom:phone.value</t>
@@ -1230,7 +1230,7 @@
     <t>XTN.1 (or XTN.12)</t>
   </si>
   <si>
-    <t>eCH-0046: 4.4 phoneNumber</t>
+    <t>eCH-0046: phoneNumber</t>
   </si>
   <si>
     <t>Patient.telecom:phone.use</t>
@@ -1263,7 +1263,7 @@
     <t>XTN.2 - but often indicated by field</t>
   </si>
   <si>
-    <t>eCH-0046: 4.4 phoneCategory/otherPhoneCategory</t>
+    <t>eCH-0046: phoneCategory/otherPhoneCategory</t>
   </si>
   <si>
     <t>Patient.telecom:phone.use.id</t>
@@ -1294,7 +1294,7 @@
     <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
-    <t>eCH-0046: 4.4.1 phoneNumberCategory</t>
+    <t>eCH-0046: phoneNumberCategory</t>
   </si>
   <si>
     <t>Patient.telecom:phone.use.value</t>
@@ -1343,7 +1343,7 @@
     <t>ContactPoint.period</t>
   </si>
   <si>
-    <t>eCH-0046: 4.4 validity</t>
+    <t>eCH-0046: validity</t>
   </si>
   <si>
     <t>Patient.telecom:phone.period.id</t>
@@ -1436,7 +1436,7 @@
     <t>CH Core ContactPoint eCH-0046 Internet</t>
   </si>
   <si>
-    <t>eCH-0046: 4.5 internet</t>
+    <t>eCH-0046: internet</t>
   </si>
   <si>
     <t>Patient.gender</t>
@@ -1469,7 +1469,7 @@
     <t>PID-8</t>
   </si>
   <si>
-    <t>eCH-0011: 3.3.3 sex. sexType, BFS-33, see ConceptMap http://fhir.ch/ig/ch-core/ConceptMap/sex-ech11-to-fhir</t>
+    <t>eCH-0011: sex. sexType, BFS-33, see ConceptMap http://fhir.ch/ig/ch-core/ConceptMap/sex-ech11-to-fhir</t>
   </si>
   <si>
     <t>Patient.birthDate</t>
@@ -1507,7 +1507,7 @@
     <t>21112-8</t>
   </si>
   <si>
-    <t>eCH-0011: 3.3.3 birthData, BFS-31</t>
+    <t>eCH-0011: birthData, BFS-31</t>
   </si>
   <si>
     <t>Patient.deceased[x]</t>
@@ -1535,7 +1535,7 @@
     <t>PID-30  (bool) and PID-29 (datetime)</t>
   </si>
   <si>
-    <t>eCH-0011: 3.3.7 deathData, deathPeriod, dateFrom, BFS-361</t>
+    <t>eCH-0011: deathData, deathPeriod, dateFrom, BFS-361</t>
   </si>
   <si>
     <t>Patient.address</t>
@@ -1574,7 +1574,7 @@
     <t>XAD</t>
   </si>
   <si>
-    <t>eCH-0010: 5.5 addressInformation</t>
+    <t>eCH-0010: addressInformation</t>
   </si>
   <si>
     <t>Patient.address:home</t>
@@ -1738,7 +1738,7 @@
     <t>eCH-0010: Extension to define line types for an address</t>
   </si>
   <si>
-    <t>eCH-0010: 5.12 addressLine1</t>
+    <t>eCH-0010: addressLine1</t>
   </si>
   <si>
     <t>Patient.address:home.line.extension:addressLine1.id</t>
@@ -1822,7 +1822,7 @@
     <t>addressLine2</t>
   </si>
   <si>
-    <t>eCH-0010: 5.12 addressLine2</t>
+    <t>eCH-0010: addressLine2</t>
   </si>
   <si>
     <t>Patient.address:home.line.extension:addressLine2.id</t>
@@ -1846,7 +1846,7 @@
     <t>street</t>
   </si>
   <si>
-    <t>eCH-0010: 5.13 street</t>
+    <t>eCH-0010: street</t>
   </si>
   <si>
     <t>Patient.address:home.line.extension:street.id</t>
@@ -1951,7 +1951,7 @@
     <t>ADXP[partType=UNID]</t>
   </si>
   <si>
-    <t>eCH-0010: 5.15 dwellingNumber</t>
+    <t>eCH-0010: dwellingNumber</t>
   </si>
   <si>
     <t>Patient.address:home.line.extension:postOfficeBoxText</t>
@@ -1963,7 +1963,7 @@
     <t>Postbox addresses need an postbox text and optional postbox number</t>
   </si>
   <si>
-    <t>eCH-0010: 5.17 postOfficeBoxText</t>
+    <t>eCH-0010: postOfficeBoxText</t>
   </si>
   <si>
     <t>Patient.address:home.line.extension:postOfficeBoxText.id</t>
@@ -2000,7 +2000,7 @@
     <t>ADXP[partType=POB]</t>
   </si>
   <si>
-    <t>eCH-0010: 5.16 postOfficeBoxNumber</t>
+    <t>eCH-0010: postOfficeBoxNumber</t>
   </si>
   <si>
     <t>Patient.address:home.line.value</t>
@@ -2040,7 +2040,7 @@
     <t>XAD.3</t>
   </si>
   <si>
-    <t>eCH-0010: 5.23 town</t>
+    <t>eCH-0010: town</t>
   </si>
   <si>
     <t>Patient.address:home.city.id</t>
@@ -2105,7 +2105,7 @@
     <t>XAD.9</t>
   </si>
   <si>
-    <t>eCH-0010: 5.22 locality</t>
+    <t>eCH-0010: locality</t>
   </si>
   <si>
     <t>Patient.address:home.state</t>
@@ -2170,7 +2170,7 @@
     <t>XAD.5</t>
   </si>
   <si>
-    <t>eCH-0010: 5.18 swissZipCode, 5.19 swissZipCodeAddOn, 5.20 swissZipCodeId, 5.21 foreignZipCode</t>
+    <t>eCH-0010: swissZipCode, swissZipCodeAddOn, swissZipCodeId, foreignZipCode</t>
   </si>
   <si>
     <t>Patient.address:home.country</t>
@@ -2197,7 +2197,7 @@
     <t>XAD.6</t>
   </si>
   <si>
-    <t>eCH-0010: 5.24 country</t>
+    <t>eCH-0010: country</t>
   </si>
   <si>
     <t>Patient.address:home.country.id</t>
@@ -2296,7 +2296,7 @@
     <t>PID-16</t>
   </si>
   <si>
-    <t>eCH-0011: 3.3.5 maritalData, BFS-341, see ConceptMap http://fhir.ch/ig/ch-core/ConceptMap/maritalstatus-ech11-to-fhir</t>
+    <t>eCH-0011: maritalData, BFS-341, see ConceptMap http://fhir.ch/ig/ch-core/ConceptMap/maritalstatus-ech11-to-fhir</t>
   </si>
   <si>
     <t>Patient.maritalStatus.id</t>
@@ -2321,7 +2321,7 @@
     <t>Extension for eCH-0011 - MaritalData - separation</t>
   </si>
   <si>
-    <t>eCH-0011: 3.3.5.5 separation - Trennung BFS-343</t>
+    <t>eCH-0011: separation - Trennung BFS-343</t>
   </si>
   <si>
     <t>Patient.maritalStatus.coding</t>
@@ -2627,7 +2627,7 @@
     <t>Contact data if it is not address of patient</t>
   </si>
   <si>
-    <t>eCH-0011: 3.3.8 contactData, BFS-61</t>
+    <t>eCH-0011: contactData, BFS-61</t>
   </si>
   <si>
     <t>Patient.contact:contact.id</t>
@@ -2672,104 +2672,54 @@
     <t>Patient.contact:contact.period</t>
   </si>
   <si>
-    <t>Patient.contact:nameOfFather</t>
-  </si>
-  <si>
-    <t>nameOfFather</t>
-  </si>
-  <si>
-    <t>Name of father</t>
-  </si>
-  <si>
-    <t>eCH-0021: 4.1.4.1 nameOfFather</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfFather.id</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfFather.extension</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfFather.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfFather.relationship</t>
+    <t>Patient.contact:nameOfParent</t>
+  </si>
+  <si>
+    <t>nameOfParent</t>
+  </si>
+  <si>
+    <t>Name of parent</t>
+  </si>
+  <si>
+    <t>eCH-0021: nameOfParent</t>
+  </si>
+  <si>
+    <t>Patient.contact:nameOfParent.id</t>
+  </si>
+  <si>
+    <t>Patient.contact:nameOfParent.extension</t>
+  </si>
+  <si>
+    <t>Patient.contact:nameOfParent.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.contact:nameOfParent.relationship</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
     &lt;system value="http://terminology.hl7.org/CodeSystem/v3-RoleCode"/&gt;
-    &lt;code value="FTH"/&gt;
+    &lt;code value="PRN"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Patient.contact:nameOfFather.name</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfFather.telecom</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfFather.address</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfFather.gender</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfFather.organization</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfFather.period</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfMother</t>
-  </si>
-  <si>
-    <t>nameOfMother</t>
-  </si>
-  <si>
-    <t>Name of mother</t>
-  </si>
-  <si>
-    <t>eCH-0021: 4.1.4.2 nameOfMother</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfMother.id</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfMother.extension</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfMother.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfMother.relationship</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-RoleCode"/&gt;
-    &lt;code value="MTH"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfMother.name</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfMother.telecom</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfMother.address</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfMother.gender</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfMother.organization</t>
-  </si>
-  <si>
-    <t>Patient.contact:nameOfMother.period</t>
+    <t>Patient.contact:nameOfParent.name</t>
+  </si>
+  <si>
+    <t>Patient.contact:nameOfParent.telecom</t>
+  </si>
+  <si>
+    <t>Patient.contact:nameOfParent.address</t>
+  </si>
+  <si>
+    <t>Patient.contact:nameOfParent.gender</t>
+  </si>
+  <si>
+    <t>Patient.contact:nameOfParent.organization</t>
+  </si>
+  <si>
+    <t>Patient.contact:nameOfParent.period</t>
   </si>
   <si>
     <t>Patient.communication</t>
@@ -2863,7 +2813,7 @@
     <t>Language of correspondence</t>
   </si>
   <si>
-    <t>eCH-0011: 3.3.9 languageOfCorrespondance: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
+    <t>eCH-0011: languageOfCorrespondance: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
   </si>
   <si>
     <t>Patient.communication:languageOfCorrespondence.id</t>
@@ -3312,7 +3262,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP198"/>
+  <dimension ref="A1:AP187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -22042,7 +21992,7 @@
         <v>81</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>83</v>
@@ -23353,11 +23303,9 @@
         <v>860</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="C168" t="s" s="2">
-        <v>861</v>
-      </c>
+        <v>860</v>
+      </c>
+      <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
         <v>83</v>
       </c>
@@ -23366,7 +23314,7 @@
         <v>81</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H168" t="s" s="2">
         <v>83</v>
@@ -23381,16 +23329,16 @@
         <v>770</v>
       </c>
       <c r="L168" t="s" s="2">
+        <v>861</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>862</v>
       </c>
-      <c r="M168" t="s" s="2">
-        <v>772</v>
-      </c>
       <c r="N168" t="s" s="2">
-        <v>773</v>
+        <v>863</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>774</v>
+        <v>864</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>83</v>
@@ -23427,19 +23375,17 @@
         <v>83</v>
       </c>
       <c r="AB168" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC168" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="AC168" s="2"/>
       <c r="AD168" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>769</v>
+        <v>860</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>81</v>
@@ -23451,13 +23397,13 @@
         <v>83</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>776</v>
+        <v>102</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>777</v>
+        <v>866</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>220</v>
+        <v>867</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>83</v>
@@ -23469,15 +23415,15 @@
         <v>83</v>
       </c>
       <c r="AP168" t="s" s="2">
-        <v>863</v>
+        <v>83</v>
       </c>
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>778</v>
+        <v>868</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23592,10 +23538,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>779</v>
+        <v>869</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23712,10 +23658,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>780</v>
+        <v>870</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23834,10 +23780,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>785</v>
+        <v>871</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23863,14 +23809,16 @@
         <v>719</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>786</v>
+        <v>872</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="N172" s="2"/>
+        <v>873</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>874</v>
+      </c>
       <c r="O172" t="s" s="2">
-        <v>788</v>
+        <v>875</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>83</v>
@@ -23880,7 +23828,7 @@
         <v>83</v>
       </c>
       <c r="S172" t="s" s="2">
-        <v>868</v>
+        <v>83</v>
       </c>
       <c r="T172" t="s" s="2">
         <v>83</v>
@@ -23895,13 +23843,13 @@
         <v>83</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>569</v>
+        <v>114</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>789</v>
+        <v>115</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>790</v>
+        <v>116</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>83</v>
@@ -23919,13 +23867,13 @@
         <v>83</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>785</v>
+        <v>871</v>
       </c>
       <c r="AG172" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH172" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI172" t="s" s="2">
         <v>83</v>
@@ -23934,16 +23882,16 @@
         <v>102</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>791</v>
+        <v>876</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>220</v>
+        <v>877</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>792</v>
+        <v>878</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>83</v>
@@ -23954,10 +23902,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>793</v>
+        <v>879</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23965,7 +23913,7 @@
       </c>
       <c r="E173" s="2"/>
       <c r="F173" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G173" t="s" s="2">
         <v>90</v>
@@ -23980,17 +23928,19 @@
         <v>83</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>794</v>
+        <v>213</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>795</v>
+        <v>880</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="N173" s="2"/>
+        <v>881</v>
+      </c>
+      <c r="N173" t="s" s="2">
+        <v>882</v>
+      </c>
       <c r="O173" t="s" s="2">
-        <v>797</v>
+        <v>883</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>83</v>
@@ -24039,7 +23989,7 @@
         <v>83</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>793</v>
+        <v>879</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>81</v>
@@ -24054,16 +24004,16 @@
         <v>102</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>798</v>
+        <v>884</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>220</v>
+        <v>885</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>799</v>
+        <v>886</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>83</v>
@@ -24074,12 +24024,14 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>800</v>
-      </c>
-      <c r="C174" s="2"/>
+        <v>860</v>
+      </c>
+      <c r="C174" t="s" s="2">
+        <v>888</v>
+      </c>
       <c r="D174" t="s" s="2">
         <v>83</v>
       </c>
@@ -24088,7 +24040,7 @@
         <v>81</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H174" t="s" s="2">
         <v>83</v>
@@ -24100,19 +24052,19 @@
         <v>83</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>333</v>
+        <v>770</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>801</v>
+        <v>889</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>802</v>
+        <v>862</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>803</v>
+        <v>863</v>
       </c>
       <c r="O174" t="s" s="2">
-        <v>337</v>
+        <v>864</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>83</v>
@@ -24161,7 +24113,7 @@
         <v>83</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>800</v>
+        <v>860</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>81</v>
@@ -24176,30 +24128,30 @@
         <v>102</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>339</v>
+        <v>866</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>220</v>
+        <v>867</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>804</v>
+        <v>83</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP174" t="s" s="2">
-        <v>83</v>
+        <v>890</v>
       </c>
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>805</v>
+        <v>868</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24222,18 +24174,16 @@
         <v>83</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>806</v>
+        <v>233</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>807</v>
+        <v>234</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>808</v>
+        <v>235</v>
       </c>
       <c r="N175" s="2"/>
-      <c r="O175" t="s" s="2">
-        <v>809</v>
-      </c>
+      <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
         <v>83</v>
       </c>
@@ -24281,7 +24231,7 @@
         <v>83</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>805</v>
+        <v>236</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>81</v>
@@ -24293,19 +24243,19 @@
         <v>83</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>810</v>
+        <v>220</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>811</v>
+        <v>83</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>83</v>
@@ -24316,21 +24266,21 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H176" t="s" s="2">
         <v>83</v>
@@ -24342,18 +24292,18 @@
         <v>83</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>813</v>
+        <v>238</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>814</v>
-      </c>
-      <c r="N176" s="2"/>
-      <c r="O176" t="s" s="2">
-        <v>815</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N176" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O176" s="2"/>
       <c r="P176" t="s" s="2">
         <v>83</v>
       </c>
@@ -24377,13 +24327,13 @@
         <v>83</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>456</v>
+        <v>83</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>457</v>
+        <v>83</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>83</v>
@@ -24401,31 +24351,31 @@
         <v>83</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>812</v>
+        <v>241</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH176" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI176" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>458</v>
+        <v>220</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>816</v>
+        <v>83</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>83</v>
@@ -24436,43 +24386,45 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>873</v>
+        <v>893</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>817</v>
+        <v>870</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
-        <v>83</v>
+        <v>781</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G177" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H177" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I177" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>818</v>
+        <v>135</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>819</v>
+        <v>782</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="N177" s="2"/>
+        <v>783</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O177" t="s" s="2">
-        <v>821</v>
+        <v>173</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>83</v>
@@ -24521,31 +24473,31 @@
         <v>83</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>817</v>
+        <v>784</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH177" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>822</v>
+        <v>83</v>
       </c>
       <c r="AJ177" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>823</v>
+        <v>133</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>824</v>
+        <v>83</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>83</v>
@@ -24556,10 +24508,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>874</v>
+        <v>894</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>825</v>
+        <v>871</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24567,7 +24519,7 @@
       </c>
       <c r="E178" s="2"/>
       <c r="F178" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>90</v>
@@ -24582,16 +24534,20 @@
         <v>83</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>325</v>
+        <v>719</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>826</v>
+        <v>872</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="N178" s="2"/>
-      <c r="O178" s="2"/>
+        <v>873</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="O178" t="s" s="2">
+        <v>875</v>
+      </c>
       <c r="P178" t="s" s="2">
         <v>83</v>
       </c>
@@ -24615,13 +24571,13 @@
         <v>83</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>83</v>
@@ -24639,10 +24595,10 @@
         <v>83</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>825</v>
+        <v>871</v>
       </c>
       <c r="AG178" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH178" t="s" s="2">
         <v>90</v>
@@ -24654,16 +24610,16 @@
         <v>102</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>828</v>
+        <v>876</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>220</v>
+        <v>877</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>83</v>
+        <v>878</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>83</v>
@@ -24674,10 +24630,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24685,10 +24641,10 @@
       </c>
       <c r="E179" s="2"/>
       <c r="F179" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G179" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H179" t="s" s="2">
         <v>83</v>
@@ -24700,26 +24656,26 @@
         <v>83</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>770</v>
+        <v>213</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="O179" t="s" s="2">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>83</v>
+        <v>896</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>83</v>
@@ -24749,23 +24705,25 @@
         <v>83</v>
       </c>
       <c r="AB179" t="s" s="2">
-        <v>880</v>
-      </c>
-      <c r="AC179" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC179" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD179" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH179" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI179" t="s" s="2">
         <v>83</v>
@@ -24774,16 +24732,16 @@
         <v>102</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>83</v>
+        <v>886</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>83</v>
@@ -24794,21 +24752,21 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
-        <v>83</v>
+        <v>898</v>
       </c>
       <c r="E180" s="2"/>
       <c r="F180" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G180" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H180" t="s" s="2">
         <v>83</v>
@@ -24820,15 +24778,17 @@
         <v>83</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>233</v>
+        <v>899</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>234</v>
+        <v>900</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N180" s="2"/>
+        <v>901</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>902</v>
+      </c>
       <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
         <v>83</v>
@@ -24877,31 +24837,31 @@
         <v>83</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>236</v>
+        <v>897</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH180" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI180" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="AK180" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="AL180" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL180" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM180" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN180" t="s" s="2">
-        <v>83</v>
+        <v>904</v>
       </c>
       <c r="AO180" t="s" s="2">
         <v>83</v>
@@ -24912,21 +24872,21 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>884</v>
+        <v>905</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>884</v>
+        <v>905</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="E181" s="2"/>
       <c r="F181" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G181" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H181" t="s" s="2">
         <v>83</v>
@@ -24935,21 +24895,23 @@
         <v>83</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>135</v>
+        <v>818</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>238</v>
+        <v>906</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>239</v>
+        <v>907</v>
       </c>
       <c r="N181" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O181" s="2"/>
+        <v>908</v>
+      </c>
+      <c r="O181" t="s" s="2">
+        <v>909</v>
+      </c>
       <c r="P181" t="s" s="2">
         <v>83</v>
       </c>
@@ -24997,25 +24959,25 @@
         <v>83</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>241</v>
+        <v>905</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH181" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI181" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>220</v>
+        <v>823</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>83</v>
+        <v>910</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>83</v>
@@ -25032,14 +24994,14 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>885</v>
+        <v>911</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>885</v>
+        <v>911</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>781</v>
+        <v>83</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -25058,19 +25020,19 @@
         <v>91</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>135</v>
+        <v>770</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>782</v>
+        <v>912</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>783</v>
+        <v>913</v>
       </c>
       <c r="N182" t="s" s="2">
-        <v>172</v>
+        <v>914</v>
       </c>
       <c r="O182" t="s" s="2">
-        <v>173</v>
+        <v>915</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>83</v>
@@ -25119,7 +25081,7 @@
         <v>83</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>784</v>
+        <v>911</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>81</v>
@@ -25131,13 +25093,13 @@
         <v>83</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>133</v>
+        <v>916</v>
       </c>
       <c r="AL182" t="s" s="2">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="AM182" t="s" s="2">
         <v>83</v>
@@ -25154,10 +25116,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>886</v>
+        <v>917</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>886</v>
+        <v>917</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25165,7 +25127,7 @@
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>90</v>
@@ -25180,20 +25142,16 @@
         <v>83</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>719</v>
+        <v>233</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>887</v>
+        <v>234</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>888</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>889</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>890</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N183" s="2"/>
+      <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
         <v>83</v>
       </c>
@@ -25217,13 +25175,13 @@
         <v>83</v>
       </c>
       <c r="X183" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="Y183" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="Z183" t="s" s="2">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="AA183" t="s" s="2">
         <v>83</v>
@@ -25241,10 +25199,10 @@
         <v>83</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>886</v>
+        <v>236</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>90</v>
@@ -25253,19 +25211,19 @@
         <v>83</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>891</v>
+        <v>220</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>892</v>
+        <v>83</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN183" t="s" s="2">
-        <v>893</v>
+        <v>83</v>
       </c>
       <c r="AO183" t="s" s="2">
         <v>83</v>
@@ -25276,21 +25234,21 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>894</v>
+        <v>918</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>894</v>
+        <v>918</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H184" t="s" s="2">
         <v>83</v>
@@ -25302,20 +25260,18 @@
         <v>83</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>895</v>
+        <v>238</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>896</v>
+        <v>239</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>897</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>898</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="O184" s="2"/>
       <c r="P184" t="s" s="2">
         <v>83</v>
       </c>
@@ -25363,31 +25319,31 @@
         <v>83</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>894</v>
+        <v>241</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH184" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI184" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>899</v>
+        <v>220</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>900</v>
+        <v>83</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>901</v>
+        <v>83</v>
       </c>
       <c r="AO184" t="s" s="2">
         <v>83</v>
@@ -25398,47 +25354,45 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="C185" t="s" s="2">
-        <v>903</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>83</v>
+        <v>781</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G185" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I185" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>770</v>
+        <v>135</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>904</v>
+        <v>782</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>877</v>
+        <v>783</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>878</v>
+        <v>172</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>879</v>
+        <v>173</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>83</v>
@@ -25487,7 +25441,7 @@
         <v>83</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>875</v>
+        <v>784</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>81</v>
@@ -25499,13 +25453,13 @@
         <v>83</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>881</v>
+        <v>133</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>882</v>
+        <v>83</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>83</v>
@@ -25517,15 +25471,15 @@
         <v>83</v>
       </c>
       <c r="AP185" t="s" s="2">
-        <v>905</v>
+        <v>83</v>
       </c>
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>883</v>
+        <v>920</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25533,7 +25487,7 @@
       </c>
       <c r="E186" s="2"/>
       <c r="F186" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G186" t="s" s="2">
         <v>90</v>
@@ -25545,18 +25499,20 @@
         <v>83</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>233</v>
+        <v>921</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>234</v>
+        <v>922</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N186" s="2"/>
+        <v>923</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>924</v>
+      </c>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
         <v>83</v>
@@ -25605,10 +25561,10 @@
         <v>83</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>236</v>
+        <v>920</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>90</v>
@@ -25617,19 +25573,19 @@
         <v>83</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="AK186" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL186" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL186" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM186" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AN186" t="s" s="2">
-        <v>83</v>
+        <v>925</v>
       </c>
       <c r="AO186" t="s" s="2">
         <v>83</v>
@@ -25640,21 +25596,21 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>907</v>
+        <v>926</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>884</v>
+        <v>926</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H187" t="s" s="2">
         <v>83</v>
@@ -25663,20 +25619,18 @@
         <v>83</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>238</v>
+        <v>927</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>928</v>
+      </c>
+      <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" t="s" s="2">
         <v>83</v>
@@ -25701,13 +25655,13 @@
         <v>83</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>83</v>
+        <v>928</v>
       </c>
       <c r="Z187" t="s" s="2">
-        <v>83</v>
+        <v>929</v>
       </c>
       <c r="AA187" t="s" s="2">
         <v>83</v>
@@ -25725,26 +25679,26 @@
         <v>83</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>241</v>
+        <v>926</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI187" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK187" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="AL187" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AL187" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM187" t="s" s="2">
         <v>83</v>
       </c>
@@ -25755,1339 +25709,11 @@
         <v>83</v>
       </c>
       <c r="AP187" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="188" hidden="true">
-      <c r="A188" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="B188" t="s" s="2">
-        <v>885</v>
-      </c>
-      <c r="C188" s="2"/>
-      <c r="D188" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="E188" s="2"/>
-      <c r="F188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G188" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I188" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J188" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K188" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="P188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q188" s="2"/>
-      <c r="R188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF188" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="AG188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH188" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ188" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK188" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO188" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP188" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="189" hidden="true">
-      <c r="A189" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>886</v>
-      </c>
-      <c r="C189" s="2"/>
-      <c r="D189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E189" s="2"/>
-      <c r="F189" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G189" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>888</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>889</v>
-      </c>
-      <c r="O189" t="s" s="2">
-        <v>890</v>
-      </c>
-      <c r="P189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q189" s="2"/>
-      <c r="R189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>886</v>
-      </c>
-      <c r="AG189" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH189" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ189" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK189" t="s" s="2">
-        <v>891</v>
-      </c>
-      <c r="AL189" t="s" s="2">
-        <v>892</v>
-      </c>
-      <c r="AM189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN189" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="AO189" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP189" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="190" hidden="true">
-      <c r="A190" t="s" s="2">
-        <v>910</v>
-      </c>
-      <c r="B190" t="s" s="2">
-        <v>894</v>
-      </c>
-      <c r="C190" s="2"/>
-      <c r="D190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E190" s="2"/>
-      <c r="F190" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G190" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>896</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>897</v>
-      </c>
-      <c r="O190" t="s" s="2">
-        <v>898</v>
-      </c>
-      <c r="P190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q190" s="2"/>
-      <c r="R190" t="s" s="2">
-        <v>911</v>
-      </c>
-      <c r="S190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF190" t="s" s="2">
-        <v>894</v>
-      </c>
-      <c r="AG190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH190" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ190" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK190" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="AL190" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="AM190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN190" t="s" s="2">
-        <v>901</v>
-      </c>
-      <c r="AO190" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP190" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="191" hidden="true">
-      <c r="A191" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="B191" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="C191" s="2"/>
-      <c r="D191" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="E191" s="2"/>
-      <c r="F191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>915</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="O191" s="2"/>
-      <c r="P191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q191" s="2"/>
-      <c r="R191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="AG191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH191" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ191" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK191" t="s" s="2">
-        <v>918</v>
-      </c>
-      <c r="AL191" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN191" t="s" s="2">
-        <v>919</v>
-      </c>
-      <c r="AO191" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP191" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="192" hidden="true">
-      <c r="A192" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="B192" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="C192" s="2"/>
-      <c r="D192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E192" s="2"/>
-      <c r="F192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G192" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J192" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K192" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="L192" t="s" s="2">
-        <v>921</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>922</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>923</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="P192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q192" s="2"/>
-      <c r="R192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>920</v>
-      </c>
-      <c r="AG192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH192" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ192" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK192" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="AL192" t="s" s="2">
-        <v>925</v>
-      </c>
-      <c r="AM192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO192" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP192" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="193" hidden="true">
-      <c r="A193" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="B193" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="C193" s="2"/>
-      <c r="D193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E193" s="2"/>
-      <c r="F193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I193" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J193" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K193" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>927</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>928</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>929</v>
-      </c>
-      <c r="O193" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="P193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q193" s="2"/>
-      <c r="R193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>926</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK193" t="s" s="2">
-        <v>931</v>
-      </c>
-      <c r="AL193" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO193" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP193" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="194" hidden="true">
-      <c r="A194" t="s" s="2">
-        <v>932</v>
-      </c>
-      <c r="B194" t="s" s="2">
-        <v>932</v>
-      </c>
-      <c r="C194" s="2"/>
-      <c r="D194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E194" s="2"/>
-      <c r="F194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G194" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K194" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N194" s="2"/>
-      <c r="O194" s="2"/>
-      <c r="P194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q194" s="2"/>
-      <c r="R194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF194" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AG194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH194" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK194" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AL194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO194" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP194" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="195" hidden="true">
-      <c r="A195" t="s" s="2">
-        <v>933</v>
-      </c>
-      <c r="B195" t="s" s="2">
-        <v>933</v>
-      </c>
-      <c r="C195" s="2"/>
-      <c r="D195" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E195" s="2"/>
-      <c r="F195" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G195" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="K195" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L195" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O195" s="2"/>
-      <c r="P195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q195" s="2"/>
-      <c r="R195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF195" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG195" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH195" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ195" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK195" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AL195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO195" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP195" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="196" hidden="true">
-      <c r="A196" t="s" s="2">
-        <v>934</v>
-      </c>
-      <c r="B196" t="s" s="2">
-        <v>934</v>
-      </c>
-      <c r="C196" s="2"/>
-      <c r="D196" t="s" s="2">
-        <v>781</v>
-      </c>
-      <c r="E196" s="2"/>
-      <c r="F196" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G196" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I196" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="J196" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K196" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>782</v>
-      </c>
-      <c r="M196" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O196" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="P196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q196" s="2"/>
-      <c r="R196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF196" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="AG196" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH196" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ196" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AK196" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AL196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO196" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP196" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="197" hidden="true">
-      <c r="A197" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="B197" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="C197" s="2"/>
-      <c r="D197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E197" s="2"/>
-      <c r="F197" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G197" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J197" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K197" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>937</v>
-      </c>
-      <c r="M197" t="s" s="2">
-        <v>938</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>939</v>
-      </c>
-      <c r="O197" s="2"/>
-      <c r="P197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q197" s="2"/>
-      <c r="R197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF197" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="AG197" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH197" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ197" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK197" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AL197" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN197" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="AO197" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP197" t="s" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="198" hidden="true">
-      <c r="A198" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="B198" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="C198" s="2"/>
-      <c r="D198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="E198" s="2"/>
-      <c r="F198" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G198" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J198" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K198" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L198" t="s" s="2">
-        <v>942</v>
-      </c>
-      <c r="M198" t="s" s="2">
-        <v>943</v>
-      </c>
-      <c r="N198" s="2"/>
-      <c r="O198" s="2"/>
-      <c r="P198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q198" s="2"/>
-      <c r="R198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X198" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="Y198" t="s" s="2">
-        <v>943</v>
-      </c>
-      <c r="Z198" t="s" s="2">
-        <v>944</v>
-      </c>
-      <c r="AA198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF198" t="s" s="2">
-        <v>941</v>
-      </c>
-      <c r="AG198" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH198" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ198" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK198" t="s" s="2">
-        <v>945</v>
-      </c>
-      <c r="AL198" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AM198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO198" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP198" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP198">
+  <autoFilter ref="A1:AP187">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -27097,7 +25723,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI197">
+  <conditionalFormatting sqref="A2:AI186">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>82</v>
@@ -14994,7 +14994,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>90</v>
@@ -15594,7 +15594,7 @@
         <v>90</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>83</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7580" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7580" uniqueCount="1007">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:At least one HumanName with given and family name must be provided. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:If one ore more human names are provided, at least one human name should have a family and a given name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender 'unknown' is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -582,7 +582,7 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -608,10 +608,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+    <t>EPR-SPID: The Central Compensation Office (ZAS; CCO) assigns and manages the new patient identification number according to the EPRA (EPR-SPID), which is only linked internally in the CCO with the AHV number. It maintains the UPI identification database (Unique Personal Identifier Database), which the EPR communities may access. The law regulates how the the EPR-SPID can be used. SR 816.111 states (Art. 10 para. 3 EPDV) that communities must ensure that the EPR-SPID number cannot be not stored in document repositories or document registries.</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -636,6 +633,9 @@
   </si>
   <si>
     <t>OASI Number Switzerland</t>
+  </si>
+  <si>
+    <t>The AHVN13 / NAVS13 - (abbreviation for new thirteen-digit Social Security number) - is an administrative identifier for natural persons in Switzerland. It is issued, announced and administered by the Central Compensation Office. It is available to all organisations and communities for which there is a legal basis.</t>
   </si>
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
@@ -892,6 +892,12 @@
 </t>
   </si>
   <si>
+    <t>Insurance card number of the patient (20 digits)</t>
+  </si>
+  <si>
+    <t>Cardnumber Swiss insurance card v1</t>
+  </si>
+  <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="urn:oid:2.16.756.5.30.1.123.100.1.1.1"/&gt;
 &lt;/valueIdentifier&gt;</t>
@@ -969,6 +975,9 @@
 ch-core-hm-1:if officalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is official {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').empty() or (family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='officialName').exists() and use='official')}ch-core-hm-2:if orginalName with eCH-011 Extension is specified, it can only be put on a name where use attribute is maiden {family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').empty() or ((family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name' and value='originalName').exists() and use='maiden'))}ch-core-hm-3:ch-ext-ech-11-name can only be put on a family name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()=family.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-name').count()}ch-core-hm-4:ch-ext-ech-11-firstname can only be put on a given name {descendants().extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()=given.extension.where(url='http://fhir.ch/ig/ch-core/StructureDefinition/ch-ext-ech-11-firstname').count()}</t>
   </si>
   <si>
+    <t>eCH-0011: nameData</t>
+  </si>
+  <si>
     <t>EN (actually, PN)</t>
   </si>
   <si>
@@ -1336,7 +1345,7 @@
     <t>.telecom</t>
   </si>
   <si>
-    <t>-&gt; as of HL7 v2.7 PID-40 (leave PID-13 and PID-14 empty)</t>
+    <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
     <t>Patient.telecom:email</t>
@@ -1675,7 +1684,7 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>male | female | other</t>
+    <t>male | female | other | unknown* (* see warning 'ch-pat-2')</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
@@ -1819,9 +1828,6 @@
     <t>Residential address</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
-  </si>
-  <si>
     <t>Patient.address:home.id</t>
   </si>
   <si>
@@ -2364,7 +2370,7 @@
     <t>Use these values for a Swiss or Liechtenstein address</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-core/ValueSet/ech-7-cantonflabbreviation</t>
+    <t>http://fhir.ch/ig/ch-core/ValueSet/ech-7-cantonabbreviation</t>
   </si>
   <si>
     <t>Address.state</t>
@@ -3522,7 +3528,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.45703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.3046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -5373,10 +5379,10 @@
         <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -5390,7 +5396,7 @@
         <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>83</v>
@@ -5447,16 +5453,16 @@
         <v>83</v>
       </c>
       <c r="AL16" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -5464,13 +5470,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>83</v>
@@ -5492,13 +5498,13 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -5569,16 +5575,16 @@
         <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -6701,10 +6707,10 @@
         <v>276</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>189</v>
+        <v>278</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -6718,7 +6724,7 @@
         <v>83</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>83</v>
@@ -6775,16 +6781,16 @@
         <v>83</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -6792,13 +6798,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>175</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>83</v>
@@ -6820,10 +6826,10 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>178</v>
@@ -6840,7 +6846,7 @@
         <v>83</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>83</v>
@@ -6914,10 +6920,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -6940,70 +6946,70 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -7021,13 +7027,13 @@
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -7038,10 +7044,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -7064,19 +7070,19 @@
         <v>83</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -7125,7 +7131,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -7137,13 +7143,13 @@
         <v>153</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>83</v>
@@ -7152,7 +7158,7 @@
         <v>83</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>83</v>
@@ -7160,10 +7166,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -7278,10 +7284,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -7398,13 +7404,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>83</v>
@@ -7426,13 +7432,13 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -7518,13 +7524,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>83</v>
@@ -7546,13 +7552,13 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -7638,10 +7644,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -7667,16 +7673,16 @@
         <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -7704,10 +7710,10 @@
         <v>221</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -7725,7 +7731,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -7743,7 +7749,7 @@
         <v>83</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>83</v>
@@ -7752,7 +7758,7 @@
         <v>83</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>83</v>
@@ -7760,10 +7766,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -7789,16 +7795,16 @@
         <v>204</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -7847,7 +7853,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -7865,7 +7871,7 @@
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>83</v>
@@ -7874,7 +7880,7 @@
         <v>83</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>83</v>
@@ -7882,14 +7888,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -7911,13 +7917,13 @@
         <v>204</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -7940,7 +7946,7 @@
         <v>83</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="X37" t="s" s="2">
         <v>83</v>
@@ -7967,7 +7973,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -7982,10 +7988,10 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>83</v>
@@ -7994,7 +8000,7 @@
         <v>83</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>83</v>
@@ -8002,10 +8008,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -8031,10 +8037,10 @@
         <v>204</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -8120,10 +8126,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -8236,13 +8242,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>83</v>
@@ -8264,13 +8270,13 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -8336,7 +8342,7 @@
         <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>83</v>
@@ -8356,13 +8362,13 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>83</v>
@@ -8384,13 +8390,13 @@
         <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -8459,7 +8465,7 @@
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>83</v>
@@ -8476,10 +8482,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -8505,10 +8511,10 @@
         <v>204</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -8532,7 +8538,7 @@
         <v>83</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="X42" t="s" s="2">
         <v>83</v>
@@ -8559,7 +8565,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -8594,14 +8600,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -8623,13 +8629,13 @@
         <v>204</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -8652,7 +8658,7 @@
         <v>83</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="X43" t="s" s="2">
         <v>83</v>
@@ -8679,7 +8685,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -8694,10 +8700,10 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>83</v>
@@ -8706,7 +8712,7 @@
         <v>83</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -8714,10 +8720,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -8743,10 +8749,10 @@
         <v>204</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -8832,10 +8838,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -8948,13 +8954,13 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>83</v>
@@ -8976,13 +8982,13 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -9048,7 +9054,7 @@
         <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>83</v>
@@ -9068,13 +9074,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>83</v>
@@ -9096,13 +9102,13 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -9171,7 +9177,7 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>83</v>
@@ -9188,10 +9194,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -9217,10 +9223,10 @@
         <v>204</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -9244,7 +9250,7 @@
         <v>83</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>83</v>
@@ -9271,7 +9277,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -9306,10 +9312,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -9335,10 +9341,10 @@
         <v>204</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -9389,7 +9395,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -9404,10 +9410,10 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>83</v>
@@ -9416,7 +9422,7 @@
         <v>83</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -9424,10 +9430,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -9453,10 +9459,10 @@
         <v>204</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -9542,10 +9548,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -9658,13 +9664,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>83</v>
@@ -9686,16 +9692,16 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -9763,7 +9769,7 @@
         <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>83</v>
@@ -9780,10 +9786,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -9809,10 +9815,10 @@
         <v>204</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -9836,7 +9842,7 @@
         <v>83</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="X53" t="s" s="2">
         <v>83</v>
@@ -9863,7 +9869,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -9898,10 +9904,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9927,10 +9933,10 @@
         <v>204</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -9981,7 +9987,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -9999,7 +10005,7 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>83</v>
@@ -10008,7 +10014,7 @@
         <v>83</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -10016,10 +10022,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -10045,14 +10051,14 @@
         <v>259</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -10101,7 +10107,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -10119,7 +10125,7 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>83</v>
@@ -10128,7 +10134,7 @@
         <v>83</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -10136,10 +10142,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -10162,19 +10168,19 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -10211,7 +10217,7 @@
         <v>83</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
@@ -10221,7 +10227,7 @@
         <v>139</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -10236,19 +10242,19 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -10256,13 +10262,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>83</v>
@@ -10284,19 +10290,19 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -10345,7 +10351,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -10357,13 +10363,13 @@
         <v>153</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>83</v>
@@ -10372,7 +10378,7 @@
         <v>83</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -10380,13 +10386,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>83</v>
@@ -10408,19 +10414,19 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -10469,7 +10475,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -10481,13 +10487,13 @@
         <v>153</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>83</v>
@@ -10496,7 +10502,7 @@
         <v>83</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>83</v>
@@ -10504,10 +10510,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -10622,10 +10628,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -10742,10 +10748,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -10771,10 +10777,10 @@
         <v>110</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10783,7 +10789,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>83</v>
@@ -10804,10 +10810,10 @@
         <v>221</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
@@ -10825,7 +10831,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -10834,16 +10840,16 @@
         <v>90</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>83</v>
@@ -10852,7 +10858,7 @@
         <v>83</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>83</v>
@@ -10860,10 +10866,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10889,16 +10895,16 @@
         <v>204</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -10911,7 +10917,7 @@
         <v>83</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>83</v>
@@ -10920,7 +10926,7 @@
         <v>83</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="X62" t="s" s="2">
         <v>83</v>
@@ -10947,7 +10953,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -10962,10 +10968,10 @@
         <v>102</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>83</v>
@@ -10974,7 +10980,7 @@
         <v>83</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -10982,10 +10988,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -11011,16 +11017,16 @@
         <v>110</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -11048,10 +11054,10 @@
         <v>221</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>83</v>
@@ -11069,7 +11075,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -11084,10 +11090,10 @@
         <v>102</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>83</v>
@@ -11096,7 +11102,7 @@
         <v>83</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>83</v>
@@ -11104,10 +11110,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -11133,10 +11139,10 @@
         <v>204</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -11222,10 +11228,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -11338,13 +11344,13 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>83</v>
@@ -11366,13 +11372,13 @@
         <v>83</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -11438,7 +11444,7 @@
         <v>141</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>133</v>
@@ -11458,10 +11464,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -11487,10 +11493,10 @@
         <v>204</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -11541,7 +11547,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -11576,10 +11582,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -11602,16 +11608,16 @@
         <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -11661,7 +11667,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -11696,10 +11702,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -11725,10 +11731,10 @@
         <v>259</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -11779,7 +11785,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -11794,10 +11800,10 @@
         <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>83</v>
@@ -11814,10 +11820,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -11932,10 +11938,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -12052,10 +12058,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -12078,16 +12084,16 @@
         <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -12137,7 +12143,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -12146,16 +12152,16 @@
         <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>83</v>
@@ -12164,7 +12170,7 @@
         <v>83</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>83</v>
@@ -12172,10 +12178,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -12198,23 +12204,23 @@
         <v>91</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q73" t="s" s="2">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>83</v>
@@ -12259,7 +12265,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -12268,16 +12274,16 @@
         <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>83</v>
@@ -12286,7 +12292,7 @@
         <v>83</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>83</v>
@@ -12294,13 +12300,13 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>83</v>
@@ -12322,19 +12328,19 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -12383,7 +12389,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -12395,13 +12401,13 @@
         <v>153</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>83</v>
@@ -12410,7 +12416,7 @@
         <v>83</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>83</v>
@@ -12418,10 +12424,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -12447,16 +12453,16 @@
         <v>110</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -12484,10 +12490,10 @@
         <v>221</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>83</v>
@@ -12505,7 +12511,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -12520,19 +12526,19 @@
         <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>83</v>
@@ -12540,10 +12546,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -12566,19 +12572,19 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>83</v>
@@ -12627,7 +12633,7 @@
         <v>83</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>81</v>
@@ -12639,33 +12645,33 @@
         <v>83</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -12688,19 +12694,19 @@
         <v>91</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>83</v>
@@ -12749,7 +12755,7 @@
         <v>83</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>81</v>
@@ -12764,10 +12770,10 @@
         <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>208</v>
@@ -12776,7 +12782,7 @@
         <v>83</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>83</v>
@@ -12784,10 +12790,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -12810,19 +12816,19 @@
         <v>83</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>83</v>
@@ -12859,7 +12865,7 @@
         <v>83</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AC78" s="2"/>
       <c r="AD78" t="s" s="2">
@@ -12869,7 +12875,7 @@
         <v>139</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>81</v>
@@ -12881,13 +12887,13 @@
         <v>153</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>83</v>
@@ -12896,7 +12902,7 @@
         <v>83</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>83</v>
@@ -12904,13 +12910,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>83</v>
@@ -12932,19 +12938,19 @@
         <v>83</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>83</v>
@@ -12993,7 +12999,7 @@
         <v>83</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>81</v>
@@ -13005,13 +13011,13 @@
         <v>153</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>83</v>
@@ -13020,7 +13026,7 @@
         <v>83</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>83</v>
@@ -13028,10 +13034,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -13146,10 +13152,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -13266,10 +13272,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -13295,16 +13301,16 @@
         <v>110</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>83</v>
@@ -13314,10 +13320,10 @@
         <v>83</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="T82" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="U82" t="s" s="2">
         <v>83</v>
@@ -13332,10 +13338,10 @@
         <v>221</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>83</v>
@@ -13353,7 +13359,7 @@
         <v>83</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>81</v>
@@ -13371,7 +13377,7 @@
         <v>83</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>83</v>
@@ -13380,7 +13386,7 @@
         <v>83</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>83</v>
@@ -13388,10 +13394,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -13417,13 +13423,13 @@
         <v>110</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -13437,7 +13443,7 @@
         <v>83</v>
       </c>
       <c r="T83" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="U83" t="s" s="2">
         <v>83</v>
@@ -13452,10 +13458,10 @@
         <v>221</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>83</v>
@@ -13473,7 +13479,7 @@
         <v>83</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>81</v>
@@ -13491,7 +13497,7 @@
         <v>83</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>83</v>
@@ -13500,7 +13506,7 @@
         <v>83</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>83</v>
@@ -13508,10 +13514,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -13537,16 +13543,16 @@
         <v>204</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>83</v>
@@ -13559,7 +13565,7 @@
         <v>83</v>
       </c>
       <c r="T84" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="U84" t="s" s="2">
         <v>83</v>
@@ -13595,7 +13601,7 @@
         <v>83</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>81</v>
@@ -13613,7 +13619,7 @@
         <v>83</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>83</v>
@@ -13622,7 +13628,7 @@
         <v>83</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>83</v>
@@ -13630,10 +13636,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -13659,10 +13665,10 @@
         <v>204</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -13677,7 +13683,7 @@
         <v>83</v>
       </c>
       <c r="T85" t="s" s="2">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="U85" t="s" s="2">
         <v>83</v>
@@ -13713,7 +13719,7 @@
         <v>83</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>81</v>
@@ -13731,7 +13737,7 @@
         <v>83</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>83</v>
@@ -13740,7 +13746,7 @@
         <v>83</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>83</v>
@@ -13748,10 +13754,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -13777,10 +13783,10 @@
         <v>204</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -13866,10 +13872,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -13937,7 +13943,7 @@
         <v>83</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="AC87" s="2"/>
       <c r="AD87" t="s" s="2">
@@ -13982,13 +13988,13 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="B88" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="B88" t="s" s="2">
-        <v>617</v>
-      </c>
       <c r="C88" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>83</v>
@@ -14010,13 +14016,13 @@
         <v>83</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L88" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -14082,7 +14088,7 @@
         <v>141</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>83</v>
@@ -14102,10 +14108,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -14220,10 +14226,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -14338,10 +14344,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -14367,13 +14373,13 @@
         <v>104</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -14381,7 +14387,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>83</v>
@@ -14423,7 +14429,7 @@
         <v>83</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>90</v>
@@ -14458,10 +14464,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -14487,10 +14493,10 @@
         <v>110</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -14529,17 +14535,17 @@
         <v>83</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AC92" s="2"/>
       <c r="AD92" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>81</v>
@@ -14574,13 +14580,13 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>83</v>
@@ -14605,10 +14611,10 @@
         <v>110</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -14617,7 +14623,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>83</v>
@@ -14638,10 +14644,10 @@
         <v>233</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>83</v>
@@ -14659,7 +14665,7 @@
         <v>83</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>81</v>
@@ -14694,13 +14700,13 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>83</v>
@@ -14722,13 +14728,13 @@
         <v>83</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -14794,7 +14800,7 @@
         <v>141</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>83</v>
@@ -14814,10 +14820,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14932,10 +14938,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -15050,10 +15056,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -15079,13 +15085,13 @@
         <v>104</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -15093,7 +15099,7 @@
       </c>
       <c r="Q97" s="2"/>
       <c r="R97" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>83</v>
@@ -15135,7 +15141,7 @@
         <v>83</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>90</v>
@@ -15170,10 +15176,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -15199,10 +15205,10 @@
         <v>110</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -15241,17 +15247,17 @@
         <v>83</v>
       </c>
       <c r="AB98" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AC98" s="2"/>
       <c r="AD98" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>81</v>
@@ -15286,13 +15292,13 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>83</v>
@@ -15317,10 +15323,10 @@
         <v>110</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -15329,7 +15335,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>83</v>
@@ -15350,10 +15356,10 @@
         <v>233</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>83</v>
@@ -15371,7 +15377,7 @@
         <v>83</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>81</v>
@@ -15406,13 +15412,13 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>83</v>
@@ -15434,13 +15440,13 @@
         <v>83</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L100" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -15506,7 +15512,7 @@
         <v>141</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>83</v>
@@ -15526,10 +15532,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -15644,10 +15650,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -15762,10 +15768,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15791,13 +15797,13 @@
         <v>104</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -15805,7 +15811,7 @@
       </c>
       <c r="Q103" s="2"/>
       <c r="R103" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="S103" t="s" s="2">
         <v>83</v>
@@ -15847,7 +15853,7 @@
         <v>83</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>90</v>
@@ -15882,10 +15888,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15911,10 +15917,10 @@
         <v>110</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -15953,17 +15959,17 @@
         <v>83</v>
       </c>
       <c r="AB104" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AC104" s="2"/>
       <c r="AD104" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>81</v>
@@ -15998,13 +16004,13 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>83</v>
@@ -16029,10 +16035,10 @@
         <v>110</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -16041,7 +16047,7 @@
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" t="s" s="2">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="S105" t="s" s="2">
         <v>83</v>
@@ -16062,10 +16068,10 @@
         <v>233</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>83</v>
@@ -16083,7 +16089,7 @@
         <v>83</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>81</v>
@@ -16118,13 +16124,13 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>83</v>
@@ -16146,13 +16152,13 @@
         <v>83</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -16221,7 +16227,7 @@
         <v>83</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>83</v>
@@ -16238,10 +16244,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -16356,10 +16362,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -16474,10 +16480,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -16503,13 +16509,13 @@
         <v>104</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -16517,7 +16523,7 @@
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" t="s" s="2">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="S109" t="s" s="2">
         <v>83</v>
@@ -16559,7 +16565,7 @@
         <v>83</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>90</v>
@@ -16594,10 +16600,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -16623,10 +16629,10 @@
         <v>204</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -16650,7 +16656,7 @@
         <v>83</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="X110" t="s" s="2">
         <v>83</v>
@@ -16677,7 +16683,7 @@
         <v>83</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>81</v>
@@ -16686,7 +16692,7 @@
         <v>90</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>102</v>
@@ -16712,13 +16718,13 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D111" t="s" s="2">
         <v>83</v>
@@ -16740,13 +16746,13 @@
         <v>83</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -16815,7 +16821,7 @@
         <v>83</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>83</v>
@@ -16832,10 +16838,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16950,10 +16956,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -17068,10 +17074,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -17097,13 +17103,13 @@
         <v>104</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -17111,7 +17117,7 @@
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" t="s" s="2">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="S114" t="s" s="2">
         <v>83</v>
@@ -17153,7 +17159,7 @@
         <v>83</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>90</v>
@@ -17188,10 +17194,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -17217,10 +17223,10 @@
         <v>204</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -17244,7 +17250,7 @@
         <v>83</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>83</v>
@@ -17271,7 +17277,7 @@
         <v>83</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>81</v>
@@ -17280,7 +17286,7 @@
         <v>90</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>102</v>
@@ -17306,13 +17312,13 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="D116" t="s" s="2">
         <v>83</v>
@@ -17334,13 +17340,13 @@
         <v>83</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
@@ -17406,10 +17412,10 @@
         <v>141</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>83</v>
@@ -17426,13 +17432,13 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>83</v>
@@ -17454,13 +17460,13 @@
         <v>83</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -17526,7 +17532,7 @@
         <v>141</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>83</v>
@@ -17546,10 +17552,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -17664,10 +17670,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -17782,10 +17788,10 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17811,13 +17817,13 @@
         <v>104</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -17825,7 +17831,7 @@
       </c>
       <c r="Q120" s="2"/>
       <c r="R120" t="s" s="2">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="S120" t="s" s="2">
         <v>83</v>
@@ -17867,7 +17873,7 @@
         <v>83</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>90</v>
@@ -17902,10 +17908,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17931,10 +17937,10 @@
         <v>110</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
@@ -17973,17 +17979,17 @@
         <v>83</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="AC121" s="2"/>
       <c r="AD121" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>81</v>
@@ -18018,13 +18024,13 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D122" t="s" s="2">
         <v>83</v>
@@ -18049,10 +18055,10 @@
         <v>110</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -18061,7 +18067,7 @@
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" t="s" s="2">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="S122" t="s" s="2">
         <v>83</v>
@@ -18082,10 +18088,10 @@
         <v>233</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>83</v>
@@ -18103,7 +18109,7 @@
         <v>83</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>81</v>
@@ -18138,13 +18144,13 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>83</v>
@@ -18166,13 +18172,13 @@
         <v>83</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
@@ -18238,10 +18244,10 @@
         <v>141</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>83</v>
@@ -18258,10 +18264,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -18287,10 +18293,10 @@
         <v>204</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -18314,7 +18320,7 @@
         <v>83</v>
       </c>
       <c r="W124" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="X124" t="s" s="2">
         <v>83</v>
@@ -18341,7 +18347,7 @@
         <v>83</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>81</v>
@@ -18376,14 +18382,14 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E125" s="2"/>
       <c r="F125" t="s" s="2">
@@ -18405,10 +18411,10 @@
         <v>204</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -18423,7 +18429,7 @@
         <v>83</v>
       </c>
       <c r="T125" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="U125" t="s" s="2">
         <v>83</v>
@@ -18432,7 +18438,7 @@
         <v>83</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="X125" t="s" s="2">
         <v>83</v>
@@ -18459,7 +18465,7 @@
         <v>83</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>81</v>
@@ -18474,10 +18480,10 @@
         <v>102</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>83</v>
@@ -18486,7 +18492,7 @@
         <v>83</v>
       </c>
       <c r="AO125" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="AP125" t="s" s="2">
         <v>83</v>
@@ -18494,10 +18500,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -18523,10 +18529,10 @@
         <v>204</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -18612,10 +18618,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -18728,13 +18734,13 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>83</v>
@@ -18756,13 +18762,13 @@
         <v>83</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="L128" t="s" s="2">
         <v>136</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
@@ -18848,10 +18854,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18877,10 +18883,10 @@
         <v>204</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -18904,7 +18910,7 @@
         <v>83</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="X129" t="s" s="2">
         <v>83</v>
@@ -18931,7 +18937,7 @@
         <v>83</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>81</v>
@@ -18966,14 +18972,14 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
@@ -18995,13 +19001,13 @@
         <v>204</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
@@ -19015,7 +19021,7 @@
         <v>83</v>
       </c>
       <c r="T130" t="s" s="2">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="U130" t="s" s="2">
         <v>83</v>
@@ -19051,7 +19057,7 @@
         <v>83</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>81</v>
@@ -19066,10 +19072,10 @@
         <v>102</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>83</v>
@@ -19078,7 +19084,7 @@
         <v>83</v>
       </c>
       <c r="AO130" t="s" s="2">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="AP130" t="s" s="2">
         <v>83</v>
@@ -19086,14 +19092,14 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
@@ -19115,10 +19121,10 @@
         <v>204</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -19145,13 +19151,13 @@
         <v>83</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>83</v>
@@ -19169,7 +19175,7 @@
         <v>83</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>81</v>
@@ -19184,10 +19190,10 @@
         <v>102</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>83</v>
@@ -19196,7 +19202,7 @@
         <v>83</v>
       </c>
       <c r="AO131" t="s" s="2">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="AP131" t="s" s="2">
         <v>83</v>
@@ -19204,14 +19210,14 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
@@ -19233,10 +19239,10 @@
         <v>204</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -19251,7 +19257,7 @@
         <v>83</v>
       </c>
       <c r="T132" t="s" s="2">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="U132" t="s" s="2">
         <v>83</v>
@@ -19260,7 +19266,7 @@
         <v>83</v>
       </c>
       <c r="W132" t="s" s="2">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="X132" t="s" s="2">
         <v>83</v>
@@ -19287,7 +19293,7 @@
         <v>83</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>81</v>
@@ -19302,10 +19308,10 @@
         <v>102</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>83</v>
@@ -19314,7 +19320,7 @@
         <v>83</v>
       </c>
       <c r="AO132" t="s" s="2">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AP132" t="s" s="2">
         <v>83</v>
@@ -19322,10 +19328,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19351,13 +19357,13 @@
         <v>204</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
@@ -19407,7 +19413,7 @@
         <v>83</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>81</v>
@@ -19422,10 +19428,10 @@
         <v>102</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>83</v>
@@ -19434,7 +19440,7 @@
         <v>83</v>
       </c>
       <c r="AO133" t="s" s="2">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="AP133" t="s" s="2">
         <v>83</v>
@@ -19442,10 +19448,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19471,10 +19477,10 @@
         <v>204</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -19560,10 +19566,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -19676,13 +19682,13 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>83</v>
@@ -19704,13 +19710,13 @@
         <v>83</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -19773,13 +19779,13 @@
         <v>153</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>83</v>
@@ -19796,10 +19802,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19825,10 +19831,10 @@
         <v>204</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -19852,7 +19858,7 @@
         <v>83</v>
       </c>
       <c r="W137" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="X137" t="s" s="2">
         <v>83</v>
@@ -19879,7 +19885,7 @@
         <v>83</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>81</v>
@@ -19914,10 +19920,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19943,14 +19949,14 @@
         <v>259</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" t="s" s="2">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>83</v>
@@ -19963,7 +19969,7 @@
         <v>83</v>
       </c>
       <c r="T138" t="s" s="2">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="U138" t="s" s="2">
         <v>83</v>
@@ -19999,7 +20005,7 @@
         <v>83</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>81</v>
@@ -20017,7 +20023,7 @@
         <v>83</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>83</v>
@@ -20026,7 +20032,7 @@
         <v>83</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>83</v>
@@ -20034,10 +20040,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -20063,14 +20069,14 @@
         <v>228</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>83</v>
@@ -20099,7 +20105,7 @@
       </c>
       <c r="Y139" s="2"/>
       <c r="Z139" t="s" s="2">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AA139" t="s" s="2">
         <v>83</v>
@@ -20117,7 +20123,7 @@
         <v>83</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>81</v>
@@ -20132,19 +20138,19 @@
         <v>102</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AM139" t="s" s="2">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>83</v>
@@ -20152,10 +20158,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -20270,10 +20276,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -20390,13 +20396,13 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D142" t="s" s="2">
         <v>83</v>
@@ -20418,13 +20424,13 @@
         <v>83</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20490,7 +20496,7 @@
         <v>141</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>83</v>
@@ -20510,10 +20516,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20536,19 +20542,19 @@
         <v>91</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>83</v>
@@ -20597,7 +20603,7 @@
         <v>83</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>81</v>
@@ -20615,7 +20621,7 @@
         <v>83</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>83</v>
@@ -20624,7 +20630,7 @@
         <v>83</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>83</v>
@@ -20632,10 +20638,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20661,16 +20667,16 @@
         <v>204</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>83</v>
@@ -20719,7 +20725,7 @@
         <v>83</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>81</v>
@@ -20737,7 +20743,7 @@
         <v>83</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>83</v>
@@ -20746,7 +20752,7 @@
         <v>83</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>83</v>
@@ -20754,10 +20760,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20780,19 +20786,19 @@
         <v>83</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>83</v>
@@ -20841,7 +20847,7 @@
         <v>83</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>81</v>
@@ -20859,7 +20865,7 @@
         <v>83</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="AM145" t="s" s="2">
         <v>208</v>
@@ -20868,7 +20874,7 @@
         <v>83</v>
       </c>
       <c r="AO145" t="s" s="2">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>83</v>
@@ -20876,10 +20882,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20902,19 +20908,19 @@
         <v>83</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>83</v>
@@ -20963,7 +20969,7 @@
         <v>83</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>81</v>
@@ -20981,7 +20987,7 @@
         <v>83</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="AM146" t="s" s="2">
         <v>208</v>
@@ -20990,7 +20996,7 @@
         <v>83</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>83</v>
@@ -20998,10 +21004,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -21024,19 +21030,19 @@
         <v>83</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>83</v>
@@ -21073,7 +21079,7 @@
         <v>83</v>
       </c>
       <c r="AB147" t="s" s="2">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="AC147" s="2"/>
       <c r="AD147" t="s" s="2">
@@ -21083,7 +21089,7 @@
         <v>139</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>81</v>
@@ -21095,13 +21101,13 @@
         <v>83</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>208</v>
@@ -21118,10 +21124,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -21236,10 +21242,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -21356,14 +21362,14 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -21385,10 +21391,10 @@
         <v>135</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="N150" t="s" s="2">
         <v>172</v>
@@ -21443,7 +21449,7 @@
         <v>83</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>81</v>
@@ -21478,10 +21484,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21507,14 +21513,14 @@
         <v>228</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>83</v>
@@ -21542,10 +21548,10 @@
         <v>233</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>83</v>
@@ -21563,7 +21569,7 @@
         <v>83</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>81</v>
@@ -21581,7 +21587,7 @@
         <v>83</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>208</v>
@@ -21590,7 +21596,7 @@
         <v>83</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>83</v>
@@ -21598,10 +21604,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21624,17 +21630,17 @@
         <v>83</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>83</v>
@@ -21683,7 +21689,7 @@
         <v>83</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>81</v>
@@ -21701,7 +21707,7 @@
         <v>83</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>208</v>
@@ -21710,7 +21716,7 @@
         <v>83</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>83</v>
@@ -21718,10 +21724,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21744,19 +21750,19 @@
         <v>83</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>83</v>
@@ -21805,7 +21811,7 @@
         <v>83</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>81</v>
@@ -21823,7 +21829,7 @@
         <v>83</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>208</v>
@@ -21832,7 +21838,7 @@
         <v>83</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>83</v>
@@ -21840,10 +21846,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21866,17 +21872,17 @@
         <v>83</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>83</v>
@@ -21925,7 +21931,7 @@
         <v>83</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>81</v>
@@ -21943,7 +21949,7 @@
         <v>83</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>208</v>
@@ -21952,7 +21958,7 @@
         <v>83</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>83</v>
@@ -21960,10 +21966,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21989,14 +21995,14 @@
         <v>110</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>83</v>
@@ -22024,10 +22030,10 @@
         <v>221</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>83</v>
@@ -22045,7 +22051,7 @@
         <v>83</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>81</v>
@@ -22063,7 +22069,7 @@
         <v>83</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>208</v>
@@ -22072,7 +22078,7 @@
         <v>83</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>83</v>
@@ -22080,10 +22086,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -22109,14 +22115,14 @@
         <v>267</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>83</v>
@@ -22165,7 +22171,7 @@
         <v>83</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>81</v>
@@ -22174,7 +22180,7 @@
         <v>90</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>102</v>
@@ -22183,7 +22189,7 @@
         <v>83</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>208</v>
@@ -22192,7 +22198,7 @@
         <v>83</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>83</v>
@@ -22200,10 +22206,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -22229,10 +22235,10 @@
         <v>259</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
@@ -22283,7 +22289,7 @@
         <v>83</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>81</v>
@@ -22301,7 +22307,7 @@
         <v>83</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>208</v>
@@ -22318,13 +22324,13 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C158" t="s" s="2">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D158" t="s" s="2">
         <v>83</v>
@@ -22346,19 +22352,19 @@
         <v>83</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>83</v>
@@ -22407,7 +22413,7 @@
         <v>83</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>81</v>
@@ -22419,13 +22425,13 @@
         <v>83</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="AL158" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="AM158" t="s" s="2">
         <v>208</v>
@@ -22442,10 +22448,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22560,10 +22566,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22680,14 +22686,14 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" t="s" s="2">
@@ -22709,10 +22715,10 @@
         <v>135</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="N161" t="s" s="2">
         <v>172</v>
@@ -22767,7 +22773,7 @@
         <v>83</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>81</v>
@@ -22802,10 +22808,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22831,14 +22837,14 @@
         <v>228</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>83</v>
@@ -22848,7 +22854,7 @@
         <v>83</v>
       </c>
       <c r="S162" t="s" s="2">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="T162" t="s" s="2">
         <v>83</v>
@@ -22866,10 +22872,10 @@
         <v>233</v>
       </c>
       <c r="Y162" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="Z162" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="AA162" t="s" s="2">
         <v>83</v>
@@ -22887,7 +22893,7 @@
         <v>83</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>81</v>
@@ -22905,7 +22911,7 @@
         <v>83</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>208</v>
@@ -22914,7 +22920,7 @@
         <v>83</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>83</v>
@@ -22922,10 +22928,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22948,17 +22954,17 @@
         <v>83</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>83</v>
@@ -23007,7 +23013,7 @@
         <v>83</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>81</v>
@@ -23025,7 +23031,7 @@
         <v>83</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>208</v>
@@ -23034,7 +23040,7 @@
         <v>83</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>83</v>
@@ -23042,10 +23048,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -23068,19 +23074,19 @@
         <v>83</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="N164" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="O164" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>83</v>
@@ -23129,7 +23135,7 @@
         <v>83</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>81</v>
@@ -23147,7 +23153,7 @@
         <v>83</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>208</v>
@@ -23156,7 +23162,7 @@
         <v>83</v>
       </c>
       <c r="AO164" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="AP164" t="s" s="2">
         <v>83</v>
@@ -23164,10 +23170,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -23190,19 +23196,19 @@
         <v>83</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="N165" t="s" s="2">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="O165" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>83</v>
@@ -23251,7 +23257,7 @@
         <v>83</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>81</v>
@@ -23263,13 +23269,13 @@
         <v>153</v>
       </c>
       <c r="AJ165" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>83</v>
@@ -23278,7 +23284,7 @@
         <v>83</v>
       </c>
       <c r="AO165" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AP165" t="s" s="2">
         <v>83</v>
@@ -23286,10 +23292,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23315,14 +23321,14 @@
         <v>110</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="N166" s="2"/>
       <c r="O166" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>83</v>
@@ -23350,10 +23356,10 @@
         <v>221</v>
       </c>
       <c r="Y166" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="Z166" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AA166" t="s" s="2">
         <v>83</v>
@@ -23371,7 +23377,7 @@
         <v>83</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>81</v>
@@ -23389,7 +23395,7 @@
         <v>83</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>208</v>
@@ -23398,7 +23404,7 @@
         <v>83</v>
       </c>
       <c r="AO166" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AP166" t="s" s="2">
         <v>83</v>
@@ -23406,10 +23412,10 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23435,14 +23441,14 @@
         <v>267</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>83</v>
@@ -23491,7 +23497,7 @@
         <v>83</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>81</v>
@@ -23500,7 +23506,7 @@
         <v>90</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>102</v>
@@ -23509,7 +23515,7 @@
         <v>83</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>208</v>
@@ -23518,7 +23524,7 @@
         <v>83</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>83</v>
@@ -23526,10 +23532,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23555,10 +23561,10 @@
         <v>259</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23609,7 +23615,7 @@
         <v>83</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>81</v>
@@ -23627,7 +23633,7 @@
         <v>83</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>208</v>
@@ -23644,13 +23650,13 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>83</v>
@@ -23672,19 +23678,19 @@
         <v>83</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="N169" t="s" s="2">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="O169" t="s" s="2">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>83</v>
@@ -23733,7 +23739,7 @@
         <v>83</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>81</v>
@@ -23745,13 +23751,13 @@
         <v>83</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>208</v>
@@ -23768,10 +23774,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23886,10 +23892,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -24006,14 +24012,14 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
@@ -24035,10 +24041,10 @@
         <v>135</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="N172" t="s" s="2">
         <v>172</v>
@@ -24093,7 +24099,7 @@
         <v>83</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>81</v>
@@ -24128,10 +24134,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -24157,14 +24163,14 @@
         <v>228</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>83</v>
@@ -24174,7 +24180,7 @@
         <v>83</v>
       </c>
       <c r="S173" t="s" s="2">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="T173" t="s" s="2">
         <v>83</v>
@@ -24192,10 +24198,10 @@
         <v>233</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="Z173" t="s" s="2">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>83</v>
@@ -24213,7 +24219,7 @@
         <v>83</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>81</v>
@@ -24231,7 +24237,7 @@
         <v>83</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>208</v>
@@ -24240,7 +24246,7 @@
         <v>83</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>83</v>
@@ -24248,10 +24254,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24274,17 +24280,17 @@
         <v>83</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>83</v>
@@ -24333,7 +24339,7 @@
         <v>83</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>81</v>
@@ -24351,7 +24357,7 @@
         <v>83</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>208</v>
@@ -24360,7 +24366,7 @@
         <v>83</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="AP174" t="s" s="2">
         <v>83</v>
@@ -24368,10 +24374,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24394,19 +24400,19 @@
         <v>83</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>83</v>
@@ -24455,7 +24461,7 @@
         <v>83</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>81</v>
@@ -24473,7 +24479,7 @@
         <v>83</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>208</v>
@@ -24482,7 +24488,7 @@
         <v>83</v>
       </c>
       <c r="AO175" t="s" s="2">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="AP175" t="s" s="2">
         <v>83</v>
@@ -24490,10 +24496,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24516,17 +24522,17 @@
         <v>83</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>83</v>
@@ -24575,7 +24581,7 @@
         <v>83</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>81</v>
@@ -24593,7 +24599,7 @@
         <v>83</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>208</v>
@@ -24602,7 +24608,7 @@
         <v>83</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>83</v>
@@ -24610,10 +24616,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24639,14 +24645,14 @@
         <v>110</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>83</v>
@@ -24674,10 +24680,10 @@
         <v>221</v>
       </c>
       <c r="Y177" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="Z177" t="s" s="2">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="AA177" t="s" s="2">
         <v>83</v>
@@ -24695,7 +24701,7 @@
         <v>83</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>81</v>
@@ -24713,7 +24719,7 @@
         <v>83</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>208</v>
@@ -24722,7 +24728,7 @@
         <v>83</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>83</v>
@@ -24730,10 +24736,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24759,14 +24765,14 @@
         <v>267</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>83</v>
@@ -24815,7 +24821,7 @@
         <v>83</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>81</v>
@@ -24824,7 +24830,7 @@
         <v>90</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>102</v>
@@ -24833,7 +24839,7 @@
         <v>83</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>208</v>
@@ -24842,7 +24848,7 @@
         <v>83</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="AP178" t="s" s="2">
         <v>83</v>
@@ -24850,10 +24856,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24879,10 +24885,10 @@
         <v>259</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
@@ -24933,7 +24939,7 @@
         <v>83</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>81</v>
@@ -24951,7 +24957,7 @@
         <v>83</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>208</v>
@@ -24968,10 +24974,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24994,19 +25000,19 @@
         <v>83</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="O180" t="s" s="2">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>83</v>
@@ -25043,7 +25049,7 @@
         <v>83</v>
       </c>
       <c r="AB180" t="s" s="2">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="AC180" s="2"/>
       <c r="AD180" t="s" s="2">
@@ -25053,7 +25059,7 @@
         <v>139</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>81</v>
@@ -25071,10 +25077,10 @@
         <v>83</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>83</v>
@@ -25088,10 +25094,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25206,10 +25212,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -25326,14 +25332,14 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
@@ -25355,10 +25361,10 @@
         <v>135</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="N183" t="s" s="2">
         <v>172</v>
@@ -25413,7 +25419,7 @@
         <v>83</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>81</v>
@@ -25448,10 +25454,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25477,16 +25483,16 @@
         <v>228</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="O184" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>83</v>
@@ -25535,7 +25541,7 @@
         <v>83</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>90</v>
@@ -25553,16 +25559,16 @@
         <v>83</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="AM184" t="s" s="2">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="AN184" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>83</v>
@@ -25570,10 +25576,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25596,19 +25602,19 @@
         <v>83</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="O185" t="s" s="2">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>83</v>
@@ -25657,7 +25663,7 @@
         <v>83</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>81</v>
@@ -25675,16 +25681,16 @@
         <v>83</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="AM185" t="s" s="2">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="AN185" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>83</v>
@@ -25692,13 +25698,13 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>83</v>
@@ -25720,19 +25726,19 @@
         <v>83</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="O186" t="s" s="2">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>83</v>
@@ -25781,7 +25787,7 @@
         <v>83</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>81</v>
@@ -25796,13 +25802,13 @@
         <v>102</v>
       </c>
       <c r="AK186" t="s" s="2">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>83</v>
@@ -25816,10 +25822,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25934,10 +25940,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -26054,14 +26060,14 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
@@ -26083,10 +26089,10 @@
         <v>135</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="N189" t="s" s="2">
         <v>172</v>
@@ -26141,7 +26147,7 @@
         <v>83</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>81</v>
@@ -26176,10 +26182,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -26205,16 +26211,16 @@
         <v>228</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="N190" t="s" s="2">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="O190" t="s" s="2">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="P190" t="s" s="2">
         <v>83</v>
@@ -26263,7 +26269,7 @@
         <v>83</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>90</v>
@@ -26281,16 +26287,16 @@
         <v>83</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO190" t="s" s="2">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="AP190" t="s" s="2">
         <v>83</v>
@@ -26298,10 +26304,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26324,26 +26330,26 @@
         <v>83</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="O191" t="s" s="2">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>83</v>
@@ -26385,7 +26391,7 @@
         <v>83</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>81</v>
@@ -26403,16 +26409,16 @@
         <v>83</v>
       </c>
       <c r="AL191" t="s" s="2">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="AM191" t="s" s="2">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="AN191" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>83</v>
@@ -26420,14 +26426,14 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
@@ -26446,16 +26452,16 @@
         <v>83</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="N192" t="s" s="2">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
@@ -26505,7 +26511,7 @@
         <v>83</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>81</v>
@@ -26523,7 +26529,7 @@
         <v>83</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>208</v>
@@ -26532,7 +26538,7 @@
         <v>83</v>
       </c>
       <c r="AO192" t="s" s="2">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="AP192" t="s" s="2">
         <v>83</v>
@@ -26540,10 +26546,10 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -26569,16 +26575,16 @@
         <v>267</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="N193" t="s" s="2">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="O193" t="s" s="2">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>83</v>
@@ -26627,7 +26633,7 @@
         <v>83</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>81</v>
@@ -26645,10 +26651,10 @@
         <v>83</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="AN193" t="s" s="2">
         <v>83</v>
@@ -26662,10 +26668,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26688,19 +26694,19 @@
         <v>91</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>83</v>
@@ -26749,7 +26755,7 @@
         <v>83</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>81</v>
@@ -26767,7 +26773,7 @@
         <v>83</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="AM194" t="s" s="2">
         <v>208</v>
@@ -26784,10 +26790,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26902,10 +26908,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -27022,14 +27028,14 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E197" s="2"/>
       <c r="F197" t="s" s="2">
@@ -27051,10 +27057,10 @@
         <v>135</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="N197" t="s" s="2">
         <v>172</v>
@@ -27109,7 +27115,7 @@
         <v>83</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>81</v>
@@ -27144,10 +27150,10 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27170,16 +27176,16 @@
         <v>91</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="O198" s="2"/>
       <c r="P198" t="s" s="2">
@@ -27229,7 +27235,7 @@
         <v>83</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>90</v>
@@ -27256,7 +27262,7 @@
         <v>83</v>
       </c>
       <c r="AO198" t="s" s="2">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="AP198" t="s" s="2">
         <v>83</v>
@@ -27264,10 +27270,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -27293,10 +27299,10 @@
         <v>110</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
@@ -27326,28 +27332,28 @@
         <v>221</v>
       </c>
       <c r="Y199" t="s" s="2">
+        <v>1004</v>
+      </c>
+      <c r="Z199" t="s" s="2">
+        <v>1005</v>
+      </c>
+      <c r="AA199" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB199" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC199" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD199" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE199" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF199" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="Z199" t="s" s="2">
-        <v>1003</v>
-      </c>
-      <c r="AA199" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB199" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC199" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD199" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE199" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF199" t="s" s="2">
-        <v>1000</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>90</v>
@@ -27365,7 +27371,7 @@
         <v>83</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>208</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5587,7 +5587,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>190</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>278</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
         <v>606</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
         <v>746</v>
       </c>
@@ -22789,7 +22789,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="161" hidden="true">
+    <row r="161">
       <c r="A161" t="s" s="2">
         <v>778</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="162" hidden="true">
+    <row r="162">
       <c r="A162" t="s" s="2">
         <v>789</v>
       </c>
@@ -23025,7 +23025,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="163" hidden="true">
+    <row r="163">
       <c r="A163" t="s" s="2">
         <v>799</v>
       </c>
@@ -31557,12 +31557,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP233">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -996,7 +996,7 @@
     <t>CH ELM Extension: VCT Code</t>
   </si>
   <si>
-    <t>This CH ELM extension enables to proivde the VCT Code.</t>
+    <t>This CH ELM extension enables to provide the VCT Code.</t>
   </si>
   <si>
     <t>Patient.name.extension:hivcode</t>
@@ -1012,7 +1012,7 @@
     <t>CH ELM Extension: HIV Code</t>
   </si>
   <si>
-    <t>This CH ELM extension enables to proivde the HIV Code.</t>
+    <t>This CH ELM extension enables to provide the HIV Code.</t>
   </si>
   <si>
     <t>Patient.name.use</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-patient.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
